--- a/FAQ/faq_csv/faq_learned.xlsx
+++ b/FAQ/faq_csv/faq_learned.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuqwe\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuqwe\Documents\GitHub\Mooncake_CSS_Bot_contentrelated\FAQ\faq_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29F1CD-B96B-4B61-A656-723A47831E56}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B536C51-C0FB-4D56-B314-9D4576188CD5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9330" xr2:uid="{B1CC63A2-08E1-44BB-B489-5513FBB46AF1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="125">
   <si>
     <t>question</t>
   </si>
@@ -438,19 +438,51 @@
   <si>
     <t>订阅名称可以更改，详细步骤请参考 https://docs.azure.cn/zh-cn/articles/azure-operations-guide/commerce/subscription-management/aog-commerce-subscription-management-rename</t>
   </si>
+  <si>
+    <t>ms.service</t>
+  </si>
+  <si>
+    <t>redis-cache</t>
+  </si>
+  <si>
+    <t>sql-database</t>
+  </si>
+  <si>
+    <t>virtual-machines</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>vpn-gateway</t>
+  </si>
+  <si>
+    <t>network-watcher</t>
+  </si>
+  <si>
+    <t>load-balancer</t>
+  </si>
+  <si>
+    <t>key-vault</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>expressroute</t>
+  </si>
+  <si>
+    <t>iot-suite</t>
+  </si>
+  <si>
+    <t>active-directory</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,40 +557,26 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <strike val="0"/>
@@ -643,6 +661,34 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -657,13 +703,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{720B58E9-7A32-47B8-A710-6D2751D76D76}" name="Table1" displayName="Table1" ref="A1:D56" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:D56" xr:uid="{81F885EA-595D-4480-87D2-45189C7EFFE8}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{92175806-EA84-4D75-BAED-B50A478B431A}" name="question" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3DB452AF-5EA5-48B3-A097-B214045BF073}" name="answer" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2A77C83F-EFA2-4B31-90DB-32E989ED21D2}" name="category" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E9F85080-2C3F-4A07-9778-CDB93DEB49B0}" name="Source" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{720B58E9-7A32-47B8-A710-6D2751D76D76}" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E56" xr:uid="{81F885EA-595D-4480-87D2-45189C7EFFE8}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{92175806-EA84-4D75-BAED-B50A478B431A}" name="question" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3DB452AF-5EA5-48B3-A097-B214045BF073}" name="answer" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2A77C83F-EFA2-4B31-90DB-32E989ED21D2}" name="category" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E9F85080-2C3F-4A07-9778-CDB93DEB49B0}" name="Source" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{4A932B43-F270-4271-8873-8C27EEA1AAF1}" name="ms.service" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -966,20 +1013,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540502D5-EB6D-4430-99A8-8D7CDB5434EF}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="96.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74" customWidth="1"/>
+    <col min="1" max="1" width="33.3984375" customWidth="1"/>
+    <col min="2" max="2" width="97.86328125" customWidth="1"/>
     <col min="3" max="3" width="9.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -992,8 +1040,11 @@
       <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1057,11 @@
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1020,8 +1074,11 @@
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1034,8 +1091,11 @@
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1108,11 @@
       <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -1062,8 +1125,11 @@
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
@@ -1076,8 +1142,11 @@
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1090,8 +1159,11 @@
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1104,8 +1176,11 @@
       <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1118,8 +1193,11 @@
       <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1132,8 +1210,11 @@
       <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>94</v>
       </c>
@@ -1146,8 +1227,11 @@
       <c r="D12" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>95</v>
       </c>
@@ -1160,8 +1244,11 @@
       <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>96</v>
       </c>
@@ -1174,8 +1261,11 @@
       <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>97</v>
       </c>
@@ -1188,8 +1278,11 @@
       <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1202,8 +1295,11 @@
       <c r="D16" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
@@ -1216,8 +1312,11 @@
       <c r="D17" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>98</v>
       </c>
@@ -1230,8 +1329,11 @@
       <c r="D18" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
@@ -1244,8 +1346,11 @@
       <c r="D19" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1258,8 +1363,11 @@
       <c r="D20" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>90</v>
       </c>
@@ -1272,8 +1380,11 @@
       <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
@@ -1286,8 +1397,11 @@
       <c r="D22" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>89</v>
       </c>
@@ -1300,8 +1414,11 @@
       <c r="D23" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E23" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
@@ -1314,8 +1431,11 @@
       <c r="D24" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
@@ -1328,8 +1448,11 @@
       <c r="D25" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
@@ -1342,8 +1465,11 @@
       <c r="D26" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E26" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
@@ -1356,8 +1482,11 @@
       <c r="D27" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
         <v>40</v>
       </c>
@@ -1370,8 +1499,11 @@
       <c r="D28" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
@@ -1384,8 +1516,11 @@
       <c r="D29" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
         <v>42</v>
       </c>
@@ -1398,8 +1533,11 @@
       <c r="D30" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>99</v>
       </c>
@@ -1412,8 +1550,11 @@
       <c r="D31" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>100</v>
       </c>
@@ -1426,8 +1567,11 @@
       <c r="D32" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
@@ -1440,8 +1584,11 @@
       <c r="D33" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E33" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>46</v>
       </c>
@@ -1454,8 +1601,11 @@
       <c r="D34" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E34" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>80</v>
       </c>
@@ -1468,8 +1618,11 @@
       <c r="D35" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E35" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>105</v>
       </c>
@@ -1482,8 +1635,11 @@
       <c r="D36" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>101</v>
       </c>
@@ -1496,8 +1652,11 @@
       <c r="D37" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E37" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
         <v>48</v>
       </c>
@@ -1510,8 +1669,11 @@
       <c r="D38" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E38" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
         <v>79</v>
       </c>
@@ -1524,8 +1686,11 @@
       <c r="D39" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E39" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
         <v>77</v>
       </c>
@@ -1538,8 +1703,11 @@
       <c r="D40" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E40" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
         <v>74</v>
       </c>
@@ -1552,8 +1720,11 @@
       <c r="D41" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E41" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>50</v>
       </c>
@@ -1566,8 +1737,11 @@
       <c r="D42" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E42" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
         <v>51</v>
       </c>
@@ -1580,8 +1754,11 @@
       <c r="D43" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E43" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>52</v>
       </c>
@@ -1594,8 +1771,11 @@
       <c r="D44" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E44" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
         <v>53</v>
       </c>
@@ -1608,8 +1788,11 @@
       <c r="D45" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E45" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="6" t="s">
         <v>54</v>
       </c>
@@ -1622,8 +1805,11 @@
       <c r="D46" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E46" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="10" t="s">
         <v>102</v>
       </c>
@@ -1636,8 +1822,11 @@
       <c r="D47" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E47" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="s">
         <v>56</v>
       </c>
@@ -1650,8 +1839,11 @@
       <c r="D48" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>104</v>
       </c>
@@ -1664,8 +1856,11 @@
       <c r="D49" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E49" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="6" t="s">
         <v>57</v>
       </c>
@@ -1678,8 +1873,11 @@
       <c r="D50" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
         <v>59</v>
       </c>
@@ -1692,8 +1890,11 @@
       <c r="D51" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E51" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
         <v>60</v>
       </c>
@@ -1706,8 +1907,11 @@
       <c r="D52" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E52" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>61</v>
       </c>
@@ -1720,8 +1924,11 @@
       <c r="D53" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E53" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="6" t="s">
         <v>63</v>
       </c>
@@ -1734,8 +1941,11 @@
       <c r="D54" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E54" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -1748,8 +1958,11 @@
       <c r="D55" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E55" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
         <v>65</v>
       </c>
@@ -1761,6 +1974,9 @@
       </c>
       <c r="D56" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
